--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3929.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3929.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.46392987887075</v>
+        <v>0.497586578130722</v>
       </c>
       <c r="B1">
-        <v>2.401069044569877</v>
+        <v>0.8091548681259155</v>
       </c>
       <c r="C1">
-        <v>6.482970086254848</v>
+        <v>1.052488803863525</v>
       </c>
       <c r="D1">
-        <v>3.756138253594591</v>
+        <v>4.733420848846436</v>
       </c>
       <c r="E1">
-        <v>1.093144193720214</v>
+        <v>1.731515645980835</v>
       </c>
     </row>
   </sheetData>
